--- a/Plancheck/check_protocol/sein.xlsx
+++ b/Plancheck/check_protocol/sein.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="5400" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -372,9 +372,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>Jaw Tracking</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>D1cc&lt;7Gy</t>
+  </si>
+  <si>
+    <t>Jaw Tracking (NOVA)</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1473,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -1833,10 +1833,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="17"/>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="17">
         <v>200</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="17">
         <v>200</v>
@@ -1929,10 +1929,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -2022,12 +2022,12 @@
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.25">
       <c r="L46" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.25">
       <c r="L47" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2102,17 +2102,17 @@
         <v>24</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
@@ -2123,12 +2123,12 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2155,12 +2155,12 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -2289,37 +2289,37 @@
         <v>24</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2372,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2383,7 +2383,7 @@
         <v>-1000</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>-300</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2409,7 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2461,55 +2461,55 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
         <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
         <v>125</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>126</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Plancheck/check_protocol/sein.xlsx
+++ b/Plancheck/check_protocol/sein.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -171,9 +171,6 @@
     <t>grid_size</t>
   </si>
   <si>
-    <t>Algo_name</t>
-  </si>
-  <si>
     <t>AAA_15605New</t>
   </si>
   <si>
@@ -544,6 +541,21 @@
   </si>
   <si>
     <t>Jaw Tracking (NOVA)</t>
+  </si>
+  <si>
+    <t>Algo options</t>
+  </si>
+  <si>
+    <t>CalculationGridSizeInCM</t>
+  </si>
+  <si>
+    <t>CalculationGridSizeInCMForSRSAndHyperArc</t>
+  </si>
+  <si>
+    <t>FieldNormalizationType</t>
+  </si>
+  <si>
+    <t>HeterogeneityCorrection</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1101,7 @@
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1146,6 +1158,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1473,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1519,32 +1534,19 @@
       <c r="G2" s="17"/>
       <c r="H2" s="18"/>
       <c r="L2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
       <c r="L3" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1561,12 +1563,12 @@
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
       <c r="L4" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="20">
         <v>1</v>
@@ -1580,10 +1582,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -1592,15 +1594,15 @@
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
       <c r="L6" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -1609,15 +1611,15 @@
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
       <c r="L7" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -1628,10 +1630,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1640,15 +1642,15 @@
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
       <c r="L9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1657,7 +1659,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="L10" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1671,10 +1673,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="17">
         <v>300</v>
@@ -1693,7 +1695,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="L12" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1707,10 +1709,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1719,7 +1721,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="L14" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1731,12 +1733,12 @@
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="L15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1746,15 +1748,15 @@
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="L16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -1763,15 +1765,15 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
       <c r="L17" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -1780,15 +1782,15 @@
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
       <c r="L18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -1797,15 +1799,15 @@
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
       <c r="L19" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -1816,10 +1818,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -1828,15 +1830,15 @@
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
       <c r="L21" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
@@ -1845,15 +1847,15 @@
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
       <c r="L22" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -1862,15 +1864,15 @@
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
       <c r="L23" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="17"/>
@@ -1881,10 +1883,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
@@ -1895,7 +1897,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="17">
         <v>200</v>
@@ -1907,12 +1909,12 @@
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
       <c r="L26" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="17">
         <v>200</v>
@@ -1924,15 +1926,15 @@
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
       <c r="L27" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -1941,93 +1943,127 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="L28" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L29" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="L30" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="14" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L31" s="14" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="L32" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L32" s="14" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="L33" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="14" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="14" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L35" s="14" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="14" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="14" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="21"/>
       <c r="L40" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L43" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L44" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L46" s="14" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="14" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L47" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2071,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>$L$6:$L$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B31">
       <formula1>$L$2:$L$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
@@ -2087,32 +2123,32 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
@@ -2123,12 +2159,12 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -2139,12 +2175,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -2155,18 +2191,18 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -2174,13 +2210,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -2188,7 +2224,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -2196,7 +2232,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
@@ -2204,7 +2240,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -2215,7 +2251,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
@@ -2226,7 +2262,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
@@ -2237,7 +2273,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -2274,52 +2310,52 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2327,7 +2363,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2357,44 +2393,44 @@
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>-1000</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>-300</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2426,90 +2462,90 @@
         <v>2</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
         <v>122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
         <v>124</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>125</v>
-      </c>
-      <c r="E3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
         <v>118</v>
       </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Plancheck/check_protocol/sein.xlsx
+++ b/Plancheck/check_protocol/sein.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -22,142 +22,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Auteur</author>
-  </authors>
-  <commentList>
-    <comment ref="C12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-pritorité
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-distance</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-start
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-stop
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-abaissement
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="145">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -270,195 +136,252 @@
     <t>,,,</t>
   </si>
   <si>
+    <t>6X</t>
+  </si>
+  <si>
+    <t>6X-FFF</t>
+  </si>
+  <si>
+    <t>10X</t>
+  </si>
+  <si>
+    <t>10X-FFF</t>
+  </si>
+  <si>
+    <t>6E</t>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <t>12E</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>PDIP</t>
+  </si>
+  <si>
+    <t>Octa4D</t>
+  </si>
+  <si>
+    <t>RUBY</t>
+  </si>
+  <si>
+    <t>Energie des faisceaux</t>
+  </si>
+  <si>
+    <t>Table de tolérance</t>
+  </si>
+  <si>
+    <t>thorax</t>
+  </si>
+  <si>
+    <t>pelvis</t>
+  </si>
+  <si>
+    <t>non fixe</t>
+  </si>
+  <si>
+    <t>RISQUE COLLISION</t>
+  </si>
+  <si>
+    <t>IMRT/STEREO</t>
+  </si>
+  <si>
+    <t>STEC OS</t>
+  </si>
+  <si>
+    <t>membre</t>
+  </si>
+  <si>
+    <t>GDE TOLERANCE</t>
+  </si>
+  <si>
+    <t>physique</t>
+  </si>
+  <si>
+    <t>sein</t>
+  </si>
+  <si>
+    <t>vertebre</t>
+  </si>
+  <si>
+    <t>ORFIT BLEU</t>
+  </si>
+  <si>
+    <t>tete et cou</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>STIC</t>
+  </si>
+  <si>
+    <t>physique_0tolera</t>
+  </si>
+  <si>
+    <t>NTO</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>PO options</t>
+  </si>
+  <si>
+    <t>AirCavityCorrection</t>
+  </si>
+  <si>
+    <t>ApertureShapeController</t>
+  </si>
+  <si>
+    <t>AutoFeathering</t>
+  </si>
+  <si>
+    <t>ConvergenceMode</t>
+  </si>
+  <si>
+    <t>DoseResolution</t>
+  </si>
+  <si>
+    <t>DoseResolutionSRSAndHyperArc</t>
+  </si>
+  <si>
+    <t>FieldGrouping</t>
+  </si>
+  <si>
+    <t>Inhomog. Correction</t>
+  </si>
+  <si>
+    <t>MRLevelAtRestart</t>
+  </si>
+  <si>
+    <t>SmoothX</t>
+  </si>
+  <si>
+    <t>SmoothY</t>
+  </si>
+  <si>
+    <t>UseGPU</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>MR3</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>D95%&gt;95%</t>
+  </si>
+  <si>
+    <t>Algo options</t>
+  </si>
+  <si>
+    <t>CalculationGridSizeInCM</t>
+  </si>
+  <si>
+    <t>CalculationGridSizeInCMForSRSAndHyperArc</t>
+  </si>
+  <si>
+    <t>FieldNormalizationType</t>
+  </si>
+  <si>
+    <t>HeterogeneityCorrection</t>
+  </si>
+  <si>
+    <t>VMAT</t>
+  </si>
+  <si>
+    <t>DCA</t>
+  </si>
+  <si>
+    <t>IMRT</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>Electrons</t>
+  </si>
+  <si>
+    <t>Tomo</t>
+  </si>
+  <si>
+    <t>Hyperarc</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Priorité</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Abaissement</t>
+  </si>
+  <si>
+    <t>Boost lit T</t>
+  </si>
+  <si>
+    <t>Canal med</t>
+  </si>
+  <si>
+    <t>Clips</t>
+  </si>
+  <si>
+    <t>Cœur</t>
+  </si>
+  <si>
+    <t>CTV paroi</t>
+  </si>
+  <si>
     <t>CTV sein</t>
   </si>
   <si>
-    <t>6X</t>
-  </si>
-  <si>
-    <t>6X-FFF</t>
-  </si>
-  <si>
-    <t>10X</t>
-  </si>
-  <si>
-    <t>10X-FFF</t>
-  </si>
-  <si>
-    <t>6E</t>
-  </si>
-  <si>
-    <t>9E</t>
-  </si>
-  <si>
-    <t>12E</t>
-  </si>
-  <si>
-    <t>CQ</t>
-  </si>
-  <si>
-    <t>PDIP</t>
-  </si>
-  <si>
-    <t>Octa4D</t>
-  </si>
-  <si>
-    <t>RUBY</t>
-  </si>
-  <si>
-    <t>Energie des faisceaux</t>
-  </si>
-  <si>
-    <t>Table de tolérance</t>
-  </si>
-  <si>
-    <t>thorax</t>
-  </si>
-  <si>
-    <t>pelvis</t>
-  </si>
-  <si>
-    <t>non fixe</t>
-  </si>
-  <si>
-    <t>RISQUE COLLISION</t>
-  </si>
-  <si>
-    <t>IMRT/STEREO</t>
-  </si>
-  <si>
-    <t>STEC OS</t>
-  </si>
-  <si>
-    <t>membre</t>
-  </si>
-  <si>
-    <t>GDE TOLERANCE</t>
-  </si>
-  <si>
-    <t>physique</t>
-  </si>
-  <si>
-    <t>sein</t>
-  </si>
-  <si>
-    <t>vertebre</t>
-  </si>
-  <si>
-    <t>ORFIT BLEU</t>
-  </si>
-  <si>
-    <t>tete et cou</t>
-  </si>
-  <si>
-    <t>DV</t>
-  </si>
-  <si>
-    <t>STIC</t>
-  </si>
-  <si>
-    <t>physique_0tolera</t>
-  </si>
-  <si>
-    <t>NTO</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>PO options</t>
-  </si>
-  <si>
-    <t>AirCavityCorrection</t>
-  </si>
-  <si>
-    <t>ApertureShapeController</t>
-  </si>
-  <si>
-    <t>AutoFeathering</t>
-  </si>
-  <si>
-    <t>ConvergenceMode</t>
-  </si>
-  <si>
-    <t>DoseResolution</t>
-  </si>
-  <si>
-    <t>DoseResolutionSRSAndHyperArc</t>
-  </si>
-  <si>
-    <t>FieldGrouping</t>
-  </si>
-  <si>
-    <t>Inhomog. Correction</t>
-  </si>
-  <si>
-    <t>MRLevelAtRestart</t>
-  </si>
-  <si>
-    <t>SmoothX</t>
-  </si>
-  <si>
-    <t>SmoothY</t>
-  </si>
-  <si>
-    <t>UseGPU</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>MR3</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>Boost lit T</t>
-  </si>
-  <si>
-    <t>Canal med</t>
-  </si>
-  <si>
-    <t>Clips</t>
-  </si>
-  <si>
-    <t>Cœur</t>
-  </si>
-  <si>
-    <t>CTV paroi</t>
-  </si>
-  <si>
     <t>Mamelon</t>
   </si>
   <si>
@@ -507,55 +430,34 @@
     <t>mean&lt;3Gy</t>
   </si>
   <si>
+    <t>V15Gy&lt;5%</t>
+  </si>
+  <si>
+    <t>D1cc&lt;35Gy</t>
+  </si>
+  <si>
+    <t>PoumonHOMO</t>
+  </si>
+  <si>
     <t>mean&lt;8Gy</t>
   </si>
   <si>
-    <t>D95%&gt;95%</t>
+    <t>V5Gy&lt;30%</t>
+  </si>
+  <si>
+    <t>V20Gy&lt;15%</t>
+  </si>
+  <si>
+    <t>V30Gy&lt;10%</t>
+  </si>
+  <si>
+    <t>D1cc&lt;7Gy</t>
   </si>
   <si>
     <t>D98%&gt;90%</t>
   </si>
   <si>
-    <t>PoumonHOMO</t>
-  </si>
-  <si>
     <t>D2%&lt;107%</t>
-  </si>
-  <si>
-    <t>V15Gy&lt;5%</t>
-  </si>
-  <si>
-    <t>D1cc&lt;35Gy</t>
-  </si>
-  <si>
-    <t>V5Gy&lt;30%</t>
-  </si>
-  <si>
-    <t>V20Gy&lt;15%</t>
-  </si>
-  <si>
-    <t>V30Gy&lt;10%</t>
-  </si>
-  <si>
-    <t>D1cc&lt;7Gy</t>
-  </si>
-  <si>
-    <t>Jaw Tracking (NOVA)</t>
-  </si>
-  <si>
-    <t>Algo options</t>
-  </si>
-  <si>
-    <t>CalculationGridSizeInCM</t>
-  </si>
-  <si>
-    <t>CalculationGridSizeInCMForSRSAndHyperArc</t>
-  </si>
-  <si>
-    <t>FieldNormalizationType</t>
-  </si>
-  <si>
-    <t>HeterogeneityCorrection</t>
   </si>
 </sst>
 </file>
@@ -705,20 +607,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,6 +839,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,7 +1021,7 @@
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1112,6 +1032,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1132,13 +1053,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1156,11 +1075,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1482,588 +1435,778 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20" style="11" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="11"/>
+    <col min="1" max="1" width="44.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20" style="12" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="12"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="41.28515625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" style="16" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="L2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="L3" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="L4" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="L6" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="L7" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="L9" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="L10" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="L13" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="L14" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="L15" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="L16" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="L17" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="L18" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="L19" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="L21" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="L22" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="L23" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="30">
+        <v>200</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="L26" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="30">
+        <v>200</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="L27" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="L28" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="L29" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="L30" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="L31" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="27">
+        <v>0.125</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="L32" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="27">
+        <v>0.125</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="L33" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="L34" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="L35" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="L2" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="L3" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="L36" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="L37" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="L38" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="L39" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="L40" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="L41" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="23">
+        <v>300</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="L4" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="20">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="L6" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="L7" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="L9" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="L10" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="23">
+        <v>100</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="23">
+        <v>30</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="L48" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="L49" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="17" t="s">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="17">
-        <v>300</v>
-      </c>
-      <c r="D12" s="17">
-        <v>3</v>
-      </c>
-      <c r="E12" s="17">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="17">
-        <v>30</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="L12" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="L14" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="L15" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="L16" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="L17" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="L18" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="L19" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="L21" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="L22" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="L23" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="17">
-        <v>200</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="L26" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="17">
-        <v>200</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-      <c r="L27" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="L28" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="L30" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G40" s="21"/>
-      <c r="L40" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L43" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L44" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L46" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L47" s="14" t="s">
-        <v>71</v>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L57" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L58" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L59" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L60" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L61" s="16" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2071,31 +2214,30 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>$L$6:$L$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>$L$2:$L$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>$L$9:$L$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>$L$12:$L$19</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:D9">
       <formula1>$L$21:$L$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B12">
+      <formula1>$L$48:$L$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14">
+      <formula1>$L$55:$L$61</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>$L$13:$L$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>$L$26:$L$41</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B13">
-      <formula1>$L$43:$L$45</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>$L$46:$L$47</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2107,178 +2249,178 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="10" customWidth="1"/>
-    <col min="2" max="4" width="11.42578125" style="11"/>
-    <col min="5" max="5" width="15.42578125" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="16.42578125" style="11" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="12"/>
+    <col min="5" max="5" width="15.42578125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>93</v>
+      <c r="G1" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>95</v>
+      <c r="A2" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="A3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>97</v>
+      <c r="A4" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="A5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>99</v>
+      <c r="A6" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="A7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>100</v>
+      <c r="A8" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="A9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="A10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="A11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="A13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="A14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="A15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="A16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2296,7 +2438,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,46 +2467,87 @@
         <v>23</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7">
+        <v>132</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2376,10 +2559,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,50 +2571,64 @@
     <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>93</v>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>-1000</v>
       </c>
-      <c r="G2" t="s">
-        <v>94</v>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>-300</v>
       </c>
-      <c r="G3" t="s">
-        <v>94</v>
-      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2443,10 +2640,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,96 +2654,124 @@
     <col min="4" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
-      </c>
+      <c r="A2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
+      <c r="B5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plancheck/check_protocol/sein.xlsx
+++ b/Plancheck/check_protocol/sein.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1053,7 +1053,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1441,13 +1440,13 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L37" sqref="L37:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="12" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" style="12" customWidth="1"/>
@@ -1455,757 +1454,757 @@
     <col min="6" max="8" width="9.140625" style="12"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="41.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" style="15" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="L2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="L2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>2.5</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="L3" s="16" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="L3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>1.25</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="L4" s="16" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="L4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="L6" s="16" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="L6" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="L7" s="16" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="L7" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="L9" s="16" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="L9" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="L10" s="16" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="L10" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="L13" s="16" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="L13" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="L14" s="16" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="L14" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="L15" s="16" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="L15" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="L16" s="16" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="L16" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="L17" s="16" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="L17" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="L18" s="16" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="L18" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="L19" s="16" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="L19" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="L21" s="16" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="L21" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="L22" s="16" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="L22" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="L23" s="16" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="L23" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="29">
         <v>200</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-      <c r="L26" s="16" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="L26" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="29">
         <v>200</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-      <c r="L27" s="16" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="L27" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="L28" s="16" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="L28" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="L29" s="16" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="L29" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="L30" s="16" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="L30" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="L31" s="16" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="L31" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>0.125</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="L32" s="16" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="L32" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="26">
         <v>0.125</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="L33" s="16" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="L33" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="L34" s="16" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="L34" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="L35" s="16" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="L35" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="L36" s="16" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="L36" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="L37" s="16" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="L37" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="L38" s="16" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="L38" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="L39" s="16" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="L39" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="L40" s="16" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="L40" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="L41" s="16" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="L41" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="22">
         <v>300</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="24"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="22">
         <v>3</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="22">
         <v>100</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="22">
         <v>30</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="L48" s="16" t="s">
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="L48" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="22">
         <v>0.1</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="L49" s="16" t="s">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="L49" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L51" s="16" t="s">
+      <c r="L51" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L52" s="16" t="s">
+      <c r="L52" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L55" s="16" t="s">
+      <c r="L55" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L56" s="16" t="s">
+      <c r="L56" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L57" s="16" t="s">
+      <c r="L57" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L58" s="16" t="s">
+      <c r="L58" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L59" s="16" t="s">
+      <c r="L59" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L60" s="16" t="s">
+      <c r="L60" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L61" s="16" t="s">
+      <c r="L61" s="15" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2248,8 +2247,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,7 +2437,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,10 +2558,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
+      <selection activeCell="A4" sqref="A4:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,12 +2623,6 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2640,10 +2633,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,29 +2743,6 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Plancheck/check_protocol/sein.xlsx
+++ b/Plancheck/check_protocol/sein.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="145">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -421,9 +421,6 @@
     <t>Ring_PTVboost</t>
   </si>
   <si>
-    <t>RingPTVsein</t>
-  </si>
-  <si>
     <t>Seuillage</t>
   </si>
   <si>
@@ -458,6 +455,9 @@
   </si>
   <si>
     <t>D2%&lt;107%</t>
+  </si>
+  <si>
+    <t>Ring_PTVsein</t>
   </si>
 </sst>
 </file>
@@ -2247,8 +2247,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,8 +2304,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>116</v>
+      <c r="A5" s="11" t="str">
+        <f>"Coeur"</f>
+        <v>Coeur</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -2436,8 +2437,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,7 +2527,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2539,7 +2540,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2690,31 +2691,31 @@
         <v>116</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,7 +2723,7 @@
         <v>124</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2736,10 +2737,10 @@
         <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="E5" s="6"/>
     </row>

--- a/Plancheck/check_protocol/sein.xlsx
+++ b/Plancheck/check_protocol/sein.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="2"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="couch_structures" sheetId="4" r:id="rId4"/>
     <sheet name="Doses" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -418,9 +418,6 @@
     <t>PTVsein-PTVboost</t>
   </si>
   <si>
-    <t>Ring_PTVboost</t>
-  </si>
-  <si>
     <t>Seuillage</t>
   </si>
   <si>
@@ -457,13 +454,16 @@
     <t>D2%&lt;107%</t>
   </si>
   <si>
-    <t>Ring_PTVsein</t>
+    <t>RingPTVsein</t>
+  </si>
+  <si>
+    <t>RingPTVboost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1143,11 +1143,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2691,31 +2691,31 @@
         <v>116</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2723,7 +2723,7 @@
         <v>124</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2737,10 +2737,10 @@
         <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="E5" s="6"/>
     </row>

--- a/Plancheck/check_protocol/sein.xlsx
+++ b/Plancheck/check_protocol/sein.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="couch_structures" sheetId="4" r:id="rId4"/>
     <sheet name="Doses" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="146">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -458,12 +458,15 @@
   </si>
   <si>
     <t>RingPTVboost</t>
+  </si>
+  <si>
+    <t>Coeur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1143,11 +1146,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -2247,7 +2250,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2304,9 +2307,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="str">
-        <f>"Coeur"</f>
-        <v>Coeur</v>
+      <c r="A5" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -2437,8 +2439,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,7 +2564,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Plancheck/check_protocol/sein.xlsx
+++ b/Plancheck/check_protocol/sein.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="couch_structures" sheetId="4" r:id="rId4"/>
     <sheet name="Doses" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -454,19 +454,19 @@
     <t>D2%&lt;107%</t>
   </si>
   <si>
-    <t>RingPTVsein</t>
-  </si>
-  <si>
-    <t>RingPTVboost</t>
-  </si>
-  <si>
     <t>Coeur</t>
+  </si>
+  <si>
+    <t>Ring_PTVsein</t>
+  </si>
+  <si>
+    <t>Ring_PTVboost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1146,11 +1146,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -2250,7 +2250,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -2439,8 +2439,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2529,16 +2529,14 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
